--- a/data/pca/factorExposure/factorExposure_2009-08-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01770872641646968</v>
+        <v>0.01672610951876449</v>
       </c>
       <c r="C2">
-        <v>-0.001540765091762176</v>
+        <v>-0.000917464393272443</v>
       </c>
       <c r="D2">
-        <v>0.003728031679114708</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009615920747014122</v>
+      </c>
+      <c r="E2">
+        <v>0.002280075555238383</v>
+      </c>
+      <c r="F2">
+        <v>0.01309002186138529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09614356193450592</v>
+        <v>0.09391749665762278</v>
       </c>
       <c r="C4">
-        <v>-0.02086517559279727</v>
+        <v>-0.01486471060862688</v>
       </c>
       <c r="D4">
-        <v>0.06519225406866293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08343218042228744</v>
+      </c>
+      <c r="E4">
+        <v>0.0290451127959011</v>
+      </c>
+      <c r="F4">
+        <v>-0.03292385943524979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1487736991513307</v>
+        <v>0.1595079306788829</v>
       </c>
       <c r="C6">
-        <v>-0.02704536582686471</v>
+        <v>-0.02708790470463253</v>
       </c>
       <c r="D6">
-        <v>-0.02498802732564102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02590898123228727</v>
+      </c>
+      <c r="E6">
+        <v>0.008697520641927657</v>
+      </c>
+      <c r="F6">
+        <v>-0.04158589944335395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06344124768712286</v>
+        <v>0.06357394815684896</v>
       </c>
       <c r="C7">
-        <v>-0.003079924456961904</v>
+        <v>0.001632453939501905</v>
       </c>
       <c r="D7">
-        <v>0.03940719786805501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05239548386764336</v>
+      </c>
+      <c r="E7">
+        <v>0.01219027857619133</v>
+      </c>
+      <c r="F7">
+        <v>-0.04692527365736606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06322739521333068</v>
+        <v>0.0576837365429891</v>
       </c>
       <c r="C8">
-        <v>0.009721174412724598</v>
+        <v>0.0131091272471516</v>
       </c>
       <c r="D8">
-        <v>0.01792561975247167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03237909006815296</v>
+      </c>
+      <c r="E8">
+        <v>0.01810590507180058</v>
+      </c>
+      <c r="F8">
+        <v>0.02633184816083426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07417233854309101</v>
+        <v>0.07085020623569246</v>
       </c>
       <c r="C9">
-        <v>-0.01714955372496216</v>
+        <v>-0.01038906728183478</v>
       </c>
       <c r="D9">
-        <v>0.06783989908431812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08739007046084585</v>
+      </c>
+      <c r="E9">
+        <v>0.02428734558811247</v>
+      </c>
+      <c r="F9">
+        <v>-0.04670506346013104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08164721595471348</v>
+        <v>0.09038289633836095</v>
       </c>
       <c r="C10">
-        <v>-0.01210758677453499</v>
+        <v>-0.02064943165143301</v>
       </c>
       <c r="D10">
-        <v>-0.1665369227390996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1641273252181839</v>
+      </c>
+      <c r="E10">
+        <v>-0.03316037592771724</v>
+      </c>
+      <c r="F10">
+        <v>0.05716887728164866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09389364928099565</v>
+        <v>0.08852467036837271</v>
       </c>
       <c r="C11">
-        <v>-0.01820780711361866</v>
+        <v>-0.01059509477693259</v>
       </c>
       <c r="D11">
-        <v>0.09380677215172861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.116782991636528</v>
+      </c>
+      <c r="E11">
+        <v>0.04645416097907681</v>
+      </c>
+      <c r="F11">
+        <v>-0.02230573248392895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1000197352669077</v>
+        <v>0.0920606609999695</v>
       </c>
       <c r="C12">
-        <v>-0.01596428167702978</v>
+        <v>-0.007924820900431029</v>
       </c>
       <c r="D12">
-        <v>0.09738444547131166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1314562003393744</v>
+      </c>
+      <c r="E12">
+        <v>0.04591616358275885</v>
+      </c>
+      <c r="F12">
+        <v>-0.0311252585538306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04310991317695443</v>
+        <v>0.04142494157390678</v>
       </c>
       <c r="C13">
-        <v>-0.006273098166675843</v>
+        <v>-0.002500233146184009</v>
       </c>
       <c r="D13">
-        <v>0.03046352615977295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05272045967215767</v>
+      </c>
+      <c r="E13">
+        <v>-0.0044034919940615</v>
+      </c>
+      <c r="F13">
+        <v>-0.0008315975090691755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02029893336798673</v>
+        <v>0.02419549114099216</v>
       </c>
       <c r="C14">
-        <v>-0.01532775758159493</v>
+        <v>-0.01389464239561318</v>
       </c>
       <c r="D14">
-        <v>0.02336830288940125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03351537868578043</v>
+      </c>
+      <c r="E14">
+        <v>0.01906651843813731</v>
+      </c>
+      <c r="F14">
+        <v>-0.01405658086935353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03517765559099648</v>
+        <v>0.03313847292223751</v>
       </c>
       <c r="C15">
-        <v>-0.007924262206546646</v>
+        <v>-0.004761672479549281</v>
       </c>
       <c r="D15">
-        <v>0.02922377216494737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0451650115416985</v>
+      </c>
+      <c r="E15">
+        <v>0.006129938140962688</v>
+      </c>
+      <c r="F15">
+        <v>-0.02551008091909826</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07956286938228098</v>
+        <v>0.07462164756748924</v>
       </c>
       <c r="C16">
-        <v>-0.008780113223493076</v>
+        <v>-0.001211880382076438</v>
       </c>
       <c r="D16">
-        <v>0.09699049518687508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1273969842032064</v>
+      </c>
+      <c r="E16">
+        <v>0.06085748014598774</v>
+      </c>
+      <c r="F16">
+        <v>-0.02713462708327753</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0008095681061953636</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002016451249108822</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001548405107441947</v>
+      </c>
+      <c r="E17">
+        <v>0.0009606857330753509</v>
+      </c>
+      <c r="F17">
+        <v>0.002306812473705152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01723913519080054</v>
+        <v>0.03661239006543955</v>
       </c>
       <c r="C18">
-        <v>0.003104326120830061</v>
+        <v>0.002919242146518787</v>
       </c>
       <c r="D18">
-        <v>0.03044111893907122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01563360613116494</v>
+      </c>
+      <c r="E18">
+        <v>-0.008745266211485017</v>
+      </c>
+      <c r="F18">
+        <v>0.008418648669761414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0666321841423763</v>
+        <v>0.06239943422346714</v>
       </c>
       <c r="C20">
-        <v>-0.006643780334820682</v>
+        <v>-0.0002979282248856396</v>
       </c>
       <c r="D20">
-        <v>0.04931043446592383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.077059755203663</v>
+      </c>
+      <c r="E20">
+        <v>0.05580786596876144</v>
+      </c>
+      <c r="F20">
+        <v>-0.02998564783922304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04243468056120794</v>
+        <v>0.04090455569645458</v>
       </c>
       <c r="C21">
-        <v>-0.01003023832915851</v>
+        <v>-0.006485133643210634</v>
       </c>
       <c r="D21">
-        <v>0.02691455230623165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03908102738162401</v>
+      </c>
+      <c r="E21">
+        <v>-0.0002557329506056139</v>
+      </c>
+      <c r="F21">
+        <v>0.02374339108547716</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04062390484826273</v>
+        <v>0.04351653006434843</v>
       </c>
       <c r="C22">
-        <v>-0.0007818538256331588</v>
+        <v>-0.0005568943562566618</v>
       </c>
       <c r="D22">
-        <v>-0.01136729130636954</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003499869347034796</v>
+      </c>
+      <c r="E22">
+        <v>0.03634897136344638</v>
+      </c>
+      <c r="F22">
+        <v>0.03864389276102499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04058703285755804</v>
+        <v>0.04349228866683774</v>
       </c>
       <c r="C23">
-        <v>-0.0007723566610952667</v>
+        <v>-0.0005483897385518331</v>
       </c>
       <c r="D23">
-        <v>-0.01134756022334582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003515317906080269</v>
+      </c>
+      <c r="E23">
+        <v>0.03653212817581514</v>
+      </c>
+      <c r="F23">
+        <v>0.03860380288294197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08516545221385115</v>
+        <v>0.08036748316647523</v>
       </c>
       <c r="C24">
-        <v>-0.009216025297720129</v>
+        <v>-0.001925134416813075</v>
       </c>
       <c r="D24">
-        <v>0.1018416730513712</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1198655798217555</v>
+      </c>
+      <c r="E24">
+        <v>0.04876485323825533</v>
+      </c>
+      <c r="F24">
+        <v>-0.02911306469057025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08999379986641359</v>
+        <v>0.08498148926230738</v>
       </c>
       <c r="C25">
-        <v>-0.01162794673602453</v>
+        <v>-0.004430889540454399</v>
       </c>
       <c r="D25">
-        <v>0.08831208667685524</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1093097202944345</v>
+      </c>
+      <c r="E25">
+        <v>0.0321192476846952</v>
+      </c>
+      <c r="F25">
+        <v>-0.02608443823612458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05830196357311827</v>
+        <v>0.05913434021407012</v>
       </c>
       <c r="C26">
-        <v>-0.01812719453983249</v>
+        <v>-0.01459047329577684</v>
       </c>
       <c r="D26">
-        <v>0.01809517307749826</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04183538354905467</v>
+      </c>
+      <c r="E26">
+        <v>0.02963056463391618</v>
+      </c>
+      <c r="F26">
+        <v>0.005032600060695727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1294987628515874</v>
+        <v>0.1407291321231341</v>
       </c>
       <c r="C28">
-        <v>-0.01043772251372743</v>
+        <v>-0.02201133801872276</v>
       </c>
       <c r="D28">
-        <v>-0.2734900057291373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2606355048359815</v>
+      </c>
+      <c r="E28">
+        <v>-0.06759256259976047</v>
+      </c>
+      <c r="F28">
+        <v>-0.003746314418582331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0264376790664403</v>
+        <v>0.02893132478963402</v>
       </c>
       <c r="C29">
-        <v>-0.01005518831352502</v>
+        <v>-0.008831568558772207</v>
       </c>
       <c r="D29">
-        <v>0.02045078810353513</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03120875332968711</v>
+      </c>
+      <c r="E29">
+        <v>0.01410089650302256</v>
+      </c>
+      <c r="F29">
+        <v>0.01251397569617048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06800704744913773</v>
+        <v>0.05941270784000615</v>
       </c>
       <c r="C30">
-        <v>-0.01044148045580019</v>
+        <v>-0.002832818731189487</v>
       </c>
       <c r="D30">
-        <v>0.0593345538939453</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08806580286118712</v>
+      </c>
+      <c r="E30">
+        <v>0.01435240867727506</v>
+      </c>
+      <c r="F30">
+        <v>-0.07954839005217429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05114546296797148</v>
+        <v>0.05138565214378087</v>
       </c>
       <c r="C31">
-        <v>-0.01688166142214945</v>
+        <v>-0.01572083472729244</v>
       </c>
       <c r="D31">
-        <v>0.02049746415568581</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02412840120988345</v>
+      </c>
+      <c r="E31">
+        <v>0.02881145882418992</v>
+      </c>
+      <c r="F31">
+        <v>0.0009961810484912998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04839730015743823</v>
+        <v>0.05154696307048414</v>
       </c>
       <c r="C32">
-        <v>-0.002250699970193249</v>
+        <v>0.001734288910329554</v>
       </c>
       <c r="D32">
-        <v>0.01881651766808717</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03620311243961023</v>
+      </c>
+      <c r="E32">
+        <v>0.03456012049810114</v>
+      </c>
+      <c r="F32">
+        <v>-0.004503434426509042</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09490537108629854</v>
+        <v>0.08891418482154623</v>
       </c>
       <c r="C33">
-        <v>-0.01407124429033228</v>
+        <v>-0.006642545842799117</v>
       </c>
       <c r="D33">
-        <v>0.07523478529677768</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1030407451243869</v>
+      </c>
+      <c r="E33">
+        <v>0.04525714338804271</v>
+      </c>
+      <c r="F33">
+        <v>-0.03931089436561024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07254394810302142</v>
+        <v>0.06846960603197769</v>
       </c>
       <c r="C34">
-        <v>-0.01620856852733437</v>
+        <v>-0.01025376158011766</v>
       </c>
       <c r="D34">
-        <v>0.08203635057943068</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1095300183105768</v>
+      </c>
+      <c r="E34">
+        <v>0.03508503440075242</v>
+      </c>
+      <c r="F34">
+        <v>-0.03285785292657863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02414974159510594</v>
+        <v>0.02545145571026865</v>
       </c>
       <c r="C35">
-        <v>-0.002893050184775637</v>
+        <v>-0.002606051437806691</v>
       </c>
       <c r="D35">
-        <v>0.006015280642874222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01211741945334855</v>
+      </c>
+      <c r="E35">
+        <v>0.0127928444602559</v>
+      </c>
+      <c r="F35">
+        <v>-0.00167232338584248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02739763705677487</v>
+        <v>0.02765194522617138</v>
       </c>
       <c r="C36">
-        <v>-0.008018993829284978</v>
+        <v>-0.006888238070030879</v>
       </c>
       <c r="D36">
-        <v>0.03852230732962899</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03998603384507435</v>
+      </c>
+      <c r="E36">
+        <v>0.01701647892753088</v>
+      </c>
+      <c r="F36">
+        <v>-0.01513610609800085</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.000253302749515848</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0005672221759700002</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002335094438745874</v>
+      </c>
+      <c r="E37">
+        <v>-0.00066744679163808</v>
+      </c>
+      <c r="F37">
+        <v>0.001579606095964067</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1181603301877299</v>
+        <v>0.1044722949160662</v>
       </c>
       <c r="C39">
-        <v>-0.02467851542395652</v>
+        <v>-0.01588254088446883</v>
       </c>
       <c r="D39">
-        <v>0.1379339658212599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1541189307690423</v>
+      </c>
+      <c r="E39">
+        <v>0.05965210401492284</v>
+      </c>
+      <c r="F39">
+        <v>-0.03029728549440442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04052974586170593</v>
+        <v>0.04145999753253992</v>
       </c>
       <c r="C40">
-        <v>-0.0101514154113361</v>
+        <v>-0.007199829903826232</v>
       </c>
       <c r="D40">
-        <v>0.006226423219387523</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02997335063197653</v>
+      </c>
+      <c r="E40">
+        <v>0.0009660863060687165</v>
+      </c>
+      <c r="F40">
+        <v>0.01866444286852299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02543356024137455</v>
+        <v>0.02777427374598388</v>
       </c>
       <c r="C41">
-        <v>-0.007143058241804965</v>
+        <v>-0.006845597559416592</v>
       </c>
       <c r="D41">
-        <v>0.00944064063308188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01048335582174359</v>
+      </c>
+      <c r="E41">
+        <v>0.01212163876942174</v>
+      </c>
+      <c r="F41">
+        <v>0.005621014228150663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04221347272777538</v>
+        <v>0.04095817882469469</v>
       </c>
       <c r="C43">
-        <v>-0.008395995098926846</v>
+        <v>-0.007143970523717763</v>
       </c>
       <c r="D43">
-        <v>0.01215560170238764</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01846336070242494</v>
+      </c>
+      <c r="E43">
+        <v>0.02554134505480797</v>
+      </c>
+      <c r="F43">
+        <v>0.01283581926682638</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07751519621455494</v>
+        <v>0.08033454357431627</v>
       </c>
       <c r="C44">
-        <v>-0.02722531885259134</v>
+        <v>-0.01950302830749063</v>
       </c>
       <c r="D44">
-        <v>0.07615144095173304</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09755642628802387</v>
+      </c>
+      <c r="E44">
+        <v>0.0623109688359136</v>
+      </c>
+      <c r="F44">
+        <v>-0.1603015651724886</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02029071484218128</v>
+        <v>0.02325016385707902</v>
       </c>
       <c r="C46">
-        <v>-0.003856229175166632</v>
+        <v>-0.003341660864117933</v>
       </c>
       <c r="D46">
-        <v>0.006738537303773874</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01266958091854136</v>
+      </c>
+      <c r="E46">
+        <v>0.02580945973739519</v>
+      </c>
+      <c r="F46">
+        <v>0.006790712863109587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05350143015922189</v>
+        <v>0.05273102973778617</v>
       </c>
       <c r="C47">
-        <v>-0.004489594438979175</v>
+        <v>-0.003861514391377465</v>
       </c>
       <c r="D47">
-        <v>0.006614572588227677</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01134455823162753</v>
+      </c>
+      <c r="E47">
+        <v>0.02341318311640041</v>
+      </c>
+      <c r="F47">
+        <v>0.03257492409500364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04916139244272975</v>
+        <v>0.05003253891567273</v>
       </c>
       <c r="C48">
-        <v>-0.005231771515969664</v>
+        <v>-0.002202884665679343</v>
       </c>
       <c r="D48">
-        <v>0.04111000930298493</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05088386991162716</v>
+      </c>
+      <c r="E48">
+        <v>-0.004655702351745239</v>
+      </c>
+      <c r="F48">
+        <v>-0.009618154427962414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2013926641891963</v>
+        <v>0.1994703046211067</v>
       </c>
       <c r="C49">
-        <v>-0.02044584405435593</v>
+        <v>-0.01903434014687616</v>
       </c>
       <c r="D49">
-        <v>-0.01879033773068017</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006876758224453815</v>
+      </c>
+      <c r="E49">
+        <v>0.03041685240627694</v>
+      </c>
+      <c r="F49">
+        <v>-0.0402421803617501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05039486020375373</v>
+        <v>0.05181776098969176</v>
       </c>
       <c r="C50">
-        <v>-0.01287921599043839</v>
+        <v>-0.01145325611226986</v>
       </c>
       <c r="D50">
-        <v>0.01965381317574571</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02332583284349682</v>
+      </c>
+      <c r="E50">
+        <v>0.02990671722677494</v>
+      </c>
+      <c r="F50">
+        <v>-0.009774678767339479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1552227615684067</v>
+        <v>0.1497746918773626</v>
       </c>
       <c r="C52">
-        <v>-0.01911210159060873</v>
+        <v>-0.01792803244713379</v>
       </c>
       <c r="D52">
-        <v>0.04992573496295139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04047175680190448</v>
+      </c>
+      <c r="E52">
+        <v>0.02045686755477839</v>
+      </c>
+      <c r="F52">
+        <v>-0.04330546300432459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1719035959579168</v>
+        <v>0.1716693637145004</v>
       </c>
       <c r="C53">
-        <v>-0.01884700343136544</v>
+        <v>-0.02026045105348641</v>
       </c>
       <c r="D53">
-        <v>0.01515320469775786</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.002678014331051155</v>
+      </c>
+      <c r="E53">
+        <v>0.02774311326406627</v>
+      </c>
+      <c r="F53">
+        <v>-0.07294593828470396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01823261473943818</v>
+        <v>0.02064743076375173</v>
       </c>
       <c r="C54">
-        <v>-0.01279109954668868</v>
+        <v>-0.01115849855752543</v>
       </c>
       <c r="D54">
-        <v>0.0269546389837796</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0348293767101492</v>
+      </c>
+      <c r="E54">
+        <v>0.02239838959752487</v>
+      </c>
+      <c r="F54">
+        <v>0.001597990696139657</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1141121371902645</v>
+        <v>0.115099387984033</v>
       </c>
       <c r="C55">
-        <v>-0.01721621473722231</v>
+        <v>-0.01779542858083879</v>
       </c>
       <c r="D55">
-        <v>0.01298277773276235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006111717861112147</v>
+      </c>
+      <c r="E55">
+        <v>0.02320875893685432</v>
+      </c>
+      <c r="F55">
+        <v>-0.04679749268059011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1782984771671538</v>
+        <v>0.1772290510437752</v>
       </c>
       <c r="C56">
-        <v>-0.01634613850044392</v>
+        <v>-0.01815455587049283</v>
       </c>
       <c r="D56">
-        <v>0.01057389533936305</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.005150515756585445</v>
+      </c>
+      <c r="E56">
+        <v>0.03111583791313332</v>
+      </c>
+      <c r="F56">
+        <v>-0.05345947744418252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0496101319743441</v>
+        <v>0.04481046678095312</v>
       </c>
       <c r="C58">
-        <v>-0.005791569876488232</v>
+        <v>0.0003246722357664709</v>
       </c>
       <c r="D58">
-        <v>0.05346777941555481</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07127070077521397</v>
+      </c>
+      <c r="E58">
+        <v>0.03261639516018182</v>
+      </c>
+      <c r="F58">
+        <v>0.0361746394517579</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1597066509557371</v>
+        <v>0.1661664106752856</v>
       </c>
       <c r="C59">
-        <v>-0.01222428359480296</v>
+        <v>-0.02233418412329458</v>
       </c>
       <c r="D59">
-        <v>-0.2252437266522161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2178624022758461</v>
+      </c>
+      <c r="E59">
+        <v>-0.04726935302232311</v>
+      </c>
+      <c r="F59">
+        <v>0.03421151042548647</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2377522611659073</v>
+        <v>0.2320811968077735</v>
       </c>
       <c r="C60">
-        <v>-0.0004047056923514358</v>
+        <v>0.00176550482164785</v>
       </c>
       <c r="D60">
-        <v>0.04461864763093366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03744760841304747</v>
+      </c>
+      <c r="E60">
+        <v>0.005924219597275495</v>
+      </c>
+      <c r="F60">
+        <v>0.0001342777205167164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08922222112437729</v>
+        <v>0.08022037900909179</v>
       </c>
       <c r="C61">
-        <v>-0.01843447254477849</v>
+        <v>-0.01137917325297779</v>
       </c>
       <c r="D61">
-        <v>0.0956417776873428</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1175293847463517</v>
+      </c>
+      <c r="E61">
+        <v>0.03931762621015576</v>
+      </c>
+      <c r="F61">
+        <v>-0.01332684319355639</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1700596134719159</v>
+        <v>0.1692699555749773</v>
       </c>
       <c r="C62">
-        <v>-0.02048737447213301</v>
+        <v>-0.02093400270551596</v>
       </c>
       <c r="D62">
-        <v>0.006798349661009112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.003658935796421103</v>
+      </c>
+      <c r="E62">
+        <v>0.03192369683784334</v>
+      </c>
+      <c r="F62">
+        <v>-0.03693843734694612</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04511042711873973</v>
+        <v>0.04605158974957682</v>
       </c>
       <c r="C63">
-        <v>-0.006140068975123932</v>
+        <v>-0.00182528789192477</v>
       </c>
       <c r="D63">
-        <v>0.04162057807468641</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05915577266931758</v>
+      </c>
+      <c r="E63">
+        <v>0.02403215613067611</v>
+      </c>
+      <c r="F63">
+        <v>-0.004059168668764206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1120322525872929</v>
+        <v>0.110986613772392</v>
       </c>
       <c r="C64">
-        <v>-0.01467353357303214</v>
+        <v>-0.0115312234344431</v>
       </c>
       <c r="D64">
-        <v>0.03234436612543189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04248560293857249</v>
+      </c>
+      <c r="E64">
+        <v>0.02233157269984233</v>
+      </c>
+      <c r="F64">
+        <v>-0.0260188670512122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1390578471860832</v>
+        <v>0.1510424240129938</v>
       </c>
       <c r="C65">
-        <v>-0.03258735309528669</v>
+        <v>-0.03437569791577823</v>
       </c>
       <c r="D65">
-        <v>-0.04834909482799575</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04655603962331947</v>
+      </c>
+      <c r="E65">
+        <v>0.003923668099002845</v>
+      </c>
+      <c r="F65">
+        <v>-0.03627276928438423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1413358021997707</v>
+        <v>0.1243316086629508</v>
       </c>
       <c r="C66">
-        <v>-0.02272136026633311</v>
+        <v>-0.01388736946036089</v>
       </c>
       <c r="D66">
-        <v>0.1151617388990683</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1410625811137768</v>
+      </c>
+      <c r="E66">
+        <v>0.06450447326409295</v>
+      </c>
+      <c r="F66">
+        <v>-0.03399335920047252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06439542596545758</v>
+        <v>0.05735273182092005</v>
       </c>
       <c r="C67">
-        <v>-0.005447999010280026</v>
+        <v>-0.002933604383607293</v>
       </c>
       <c r="D67">
-        <v>0.05213520205540152</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05552016702711841</v>
+      </c>
+      <c r="E67">
+        <v>0.0167119614968429</v>
+      </c>
+      <c r="F67">
+        <v>0.0297457193486838</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1029395970490265</v>
+        <v>0.1152707398180202</v>
       </c>
       <c r="C68">
-        <v>-0.02068849134072399</v>
+        <v>-0.03273300479704958</v>
       </c>
       <c r="D68">
-        <v>-0.2726751830648591</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2608695416789285</v>
+      </c>
+      <c r="E68">
+        <v>-0.0877451936038446</v>
+      </c>
+      <c r="F68">
+        <v>0.001753144662322551</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04054845790031425</v>
+        <v>0.03900398155427878</v>
       </c>
       <c r="C69">
-        <v>-0.001600924287820752</v>
+        <v>-0.001284062437306083</v>
       </c>
       <c r="D69">
-        <v>0.007186770939610222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007605364205037561</v>
+      </c>
+      <c r="E69">
+        <v>0.02335083293140912</v>
+      </c>
+      <c r="F69">
+        <v>-0.0009286594339613081</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06749800916126576</v>
+        <v>0.06681478458681378</v>
       </c>
       <c r="C70">
-        <v>0.02389746658927047</v>
+        <v>0.02728205335301625</v>
       </c>
       <c r="D70">
-        <v>-0.01591617451927218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02408033155341761</v>
+      </c>
+      <c r="E70">
+        <v>-0.03116527779726752</v>
+      </c>
+      <c r="F70">
+        <v>0.1785706070939753</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.120558720794801</v>
+        <v>0.1351709974173335</v>
       </c>
       <c r="C71">
-        <v>-0.02413394032316756</v>
+        <v>-0.03712066874106365</v>
       </c>
       <c r="D71">
-        <v>-0.2866282016020447</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2721630414035772</v>
+      </c>
+      <c r="E71">
+        <v>-0.09798824756591504</v>
+      </c>
+      <c r="F71">
+        <v>-0.004311858814219015</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1383483291605883</v>
+        <v>0.1427903839518435</v>
       </c>
       <c r="C72">
-        <v>-0.02700621025435236</v>
+        <v>-0.02752975368804678</v>
       </c>
       <c r="D72">
-        <v>0.0006791070696844818</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.005107351841087057</v>
+      </c>
+      <c r="E72">
+        <v>0.03588379213148461</v>
+      </c>
+      <c r="F72">
+        <v>-0.03073965198776607</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2064041663569027</v>
+        <v>0.2047671104398967</v>
       </c>
       <c r="C73">
-        <v>-0.01630880927176619</v>
+        <v>-0.01346106554467199</v>
       </c>
       <c r="D73">
-        <v>0.01552826461194903</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01583249232176207</v>
+      </c>
+      <c r="E73">
+        <v>0.06326214367202442</v>
+      </c>
+      <c r="F73">
+        <v>-0.03999740391740533</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09320586109690096</v>
+        <v>0.09553811130381523</v>
       </c>
       <c r="C74">
-        <v>-0.01318318953705814</v>
+        <v>-0.01374057559646233</v>
       </c>
       <c r="D74">
-        <v>0.02108216076941109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01510689456719348</v>
+      </c>
+      <c r="E74">
+        <v>0.04331924043100165</v>
+      </c>
+      <c r="F74">
+        <v>-0.05625996661515791</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1342630288172057</v>
+        <v>0.1277523760372751</v>
       </c>
       <c r="C75">
-        <v>-0.02974616394782714</v>
+        <v>-0.02864599956191541</v>
       </c>
       <c r="D75">
-        <v>0.02849341314433404</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02818349381356728</v>
+      </c>
+      <c r="E75">
+        <v>0.05652326454596417</v>
+      </c>
+      <c r="F75">
+        <v>-0.0218791918029349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08477236099283669</v>
+        <v>0.08948042916146076</v>
       </c>
       <c r="C77">
-        <v>-0.0153216840372677</v>
+        <v>-0.008135158670134887</v>
       </c>
       <c r="D77">
-        <v>0.09523116748022745</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1140564742864484</v>
+      </c>
+      <c r="E77">
+        <v>0.04370829432792039</v>
+      </c>
+      <c r="F77">
+        <v>-0.0350737495410042</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1041003798532947</v>
+        <v>0.1004637950306758</v>
       </c>
       <c r="C78">
-        <v>-0.04668029893878554</v>
+        <v>-0.03954806873487549</v>
       </c>
       <c r="D78">
-        <v>0.09905261449917335</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1152088958144153</v>
+      </c>
+      <c r="E78">
+        <v>0.07659407338981736</v>
+      </c>
+      <c r="F78">
+        <v>-0.05114560344137736</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1637470728824089</v>
+        <v>0.1639006851928408</v>
       </c>
       <c r="C79">
-        <v>-0.02347711944234859</v>
+        <v>-0.02337878700597466</v>
       </c>
       <c r="D79">
-        <v>0.01442201775809624</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01148608577469501</v>
+      </c>
+      <c r="E79">
+        <v>0.04405372062235745</v>
+      </c>
+      <c r="F79">
+        <v>-0.0116002608840909</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08703677405022944</v>
+        <v>0.08235900826551522</v>
       </c>
       <c r="C80">
-        <v>-0.001682643005623592</v>
+        <v>0.0005311586562397886</v>
       </c>
       <c r="D80">
-        <v>0.04228637261394364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05502580385546695</v>
+      </c>
+      <c r="E80">
+        <v>0.03541923741680088</v>
+      </c>
+      <c r="F80">
+        <v>0.01946876996406614</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1195778438505706</v>
+        <v>0.1182660098401976</v>
       </c>
       <c r="C81">
-        <v>-0.03199784994784503</v>
+        <v>-0.03209969071902302</v>
       </c>
       <c r="D81">
-        <v>0.0243298749537992</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01295725310596062</v>
+      </c>
+      <c r="E81">
+        <v>0.05466865347933907</v>
+      </c>
+      <c r="F81">
+        <v>-0.0194639376118536</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.166286323797794</v>
+        <v>0.1662249226051679</v>
       </c>
       <c r="C82">
-        <v>-0.02418606182422865</v>
+        <v>-0.0255618048997735</v>
       </c>
       <c r="D82">
-        <v>0.0140380947130391</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001521723825621609</v>
+      </c>
+      <c r="E82">
+        <v>0.02463749507658463</v>
+      </c>
+      <c r="F82">
+        <v>-0.08047258530134123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06740974038995957</v>
+        <v>0.05864880007560139</v>
       </c>
       <c r="C83">
-        <v>-0.006259619480191694</v>
+        <v>-0.003016498095128813</v>
       </c>
       <c r="D83">
-        <v>0.03375532242696051</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05000118062352225</v>
+      </c>
+      <c r="E83">
+        <v>0.003367192166253446</v>
+      </c>
+      <c r="F83">
+        <v>0.02931853751037035</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06502712007791178</v>
+        <v>0.05821255598848311</v>
       </c>
       <c r="C84">
-        <v>-0.0147986090969254</v>
+        <v>-0.01083271888775246</v>
       </c>
       <c r="D84">
-        <v>0.06500556442162354</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07338184106399927</v>
+      </c>
+      <c r="E84">
+        <v>0.01512828955492286</v>
+      </c>
+      <c r="F84">
+        <v>-0.01385206030746563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1367110925298888</v>
+        <v>0.1356063714327346</v>
       </c>
       <c r="C85">
-        <v>-0.02800701014552739</v>
+        <v>-0.02858397224708208</v>
       </c>
       <c r="D85">
-        <v>0.01825869453643574</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007428955923053706</v>
+      </c>
+      <c r="E85">
+        <v>0.03494659143526529</v>
+      </c>
+      <c r="F85">
+        <v>-0.04669630606721963</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1052594200117526</v>
+        <v>0.09336367843267142</v>
       </c>
       <c r="C86">
-        <v>0.001704199678743783</v>
+        <v>0.006243647390744417</v>
       </c>
       <c r="D86">
-        <v>-0.01178249345047564</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04922438075713689</v>
+      </c>
+      <c r="E86">
+        <v>0.2422613990046776</v>
+      </c>
+      <c r="F86">
+        <v>0.9030629158568474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1011601724879324</v>
+        <v>0.09444268016450705</v>
       </c>
       <c r="C87">
-        <v>-0.02898479163442584</v>
+        <v>-0.01941865284317647</v>
       </c>
       <c r="D87">
-        <v>0.0650268072374964</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09550387496981941</v>
+      </c>
+      <c r="E87">
+        <v>-0.05181727353130346</v>
+      </c>
+      <c r="F87">
+        <v>-0.04740583727944572</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06089244982548671</v>
+        <v>0.06055922638740725</v>
       </c>
       <c r="C88">
-        <v>-0.005176860385830534</v>
+        <v>-0.00234730758860322</v>
       </c>
       <c r="D88">
-        <v>0.05452040472898348</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04914476296503927</v>
+      </c>
+      <c r="E88">
+        <v>0.02395188624317302</v>
+      </c>
+      <c r="F88">
+        <v>-0.01531447141045372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1150711476850304</v>
+        <v>0.1261744997545115</v>
       </c>
       <c r="C89">
-        <v>-0.001604410392689808</v>
+        <v>-0.01256562179937987</v>
       </c>
       <c r="D89">
-        <v>-0.2614544544145981</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2425262251785328</v>
+      </c>
+      <c r="E89">
+        <v>-0.08914612684590405</v>
+      </c>
+      <c r="F89">
+        <v>0.01218438644683055</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1316906942791791</v>
+        <v>0.1498015979457755</v>
       </c>
       <c r="C90">
-        <v>-0.02091996812899333</v>
+        <v>-0.03383767956235787</v>
       </c>
       <c r="D90">
-        <v>-0.2750020687886089</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2700309920711859</v>
+      </c>
+      <c r="E90">
+        <v>-0.1142717534962731</v>
+      </c>
+      <c r="F90">
+        <v>0.01217828844486132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1192802732381848</v>
+        <v>0.1217189471231259</v>
       </c>
       <c r="C91">
-        <v>-0.0190598568839726</v>
+        <v>-0.02032052232421332</v>
       </c>
       <c r="D91">
-        <v>-0.007576902291698097</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01796262538965604</v>
+      </c>
+      <c r="E91">
+        <v>0.05380962834727466</v>
+      </c>
+      <c r="F91">
+        <v>0.0007216446179188848</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1365159169768537</v>
+        <v>0.1463679374781079</v>
       </c>
       <c r="C92">
-        <v>-0.01068655453504025</v>
+        <v>-0.02433191046670166</v>
       </c>
       <c r="D92">
-        <v>-0.3100076498567494</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2914514976034537</v>
+      </c>
+      <c r="E92">
+        <v>-0.1028872407745426</v>
+      </c>
+      <c r="F92">
+        <v>0.02034966178561004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1352468966998648</v>
+        <v>0.1501722698504526</v>
       </c>
       <c r="C93">
-        <v>-0.01642724587533297</v>
+        <v>-0.02867135091855398</v>
       </c>
       <c r="D93">
-        <v>-0.2701934310050739</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2653132482570625</v>
+      </c>
+      <c r="E93">
+        <v>-0.07676201499657226</v>
+      </c>
+      <c r="F93">
+        <v>0.002016917867766634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1352023354179835</v>
+        <v>0.1287247194257013</v>
       </c>
       <c r="C94">
-        <v>-0.02677766229066006</v>
+        <v>-0.02515565172479874</v>
       </c>
       <c r="D94">
-        <v>0.04279446312553124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03938538725307399</v>
+      </c>
+      <c r="E94">
+        <v>0.05623908166707116</v>
+      </c>
+      <c r="F94">
+        <v>-0.0351216233333337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1272034786581375</v>
+        <v>0.1260219552326849</v>
       </c>
       <c r="C95">
-        <v>-0.01049462414231972</v>
+        <v>-0.003374789023486692</v>
       </c>
       <c r="D95">
-        <v>0.07351077143676339</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09730211117891939</v>
+      </c>
+      <c r="E95">
+        <v>0.05283389154435181</v>
+      </c>
+      <c r="F95">
+        <v>0.005452299017234204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1156709473805863</v>
+        <v>0.110757754444237</v>
       </c>
       <c r="C96">
-        <v>0.987494388349934</v>
+        <v>0.9869682809052427</v>
       </c>
       <c r="D96">
-        <v>-0.009425226988519123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05053248759459775</v>
+      </c>
+      <c r="E96">
+        <v>0.05241650511391698</v>
+      </c>
+      <c r="F96">
+        <v>-0.04305373890491984</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1916536096091176</v>
+        <v>0.1918109466488822</v>
       </c>
       <c r="C97">
-        <v>0.0066571959141979</v>
+        <v>0.006471368015847937</v>
       </c>
       <c r="D97">
-        <v>-0.01405374939236581</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02059729080664361</v>
+      </c>
+      <c r="E97">
+        <v>0.02123360052841097</v>
+      </c>
+      <c r="F97">
+        <v>0.09191608520639341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2001759887322644</v>
+        <v>0.2063268597737215</v>
       </c>
       <c r="C98">
-        <v>-0.01023323016221359</v>
+        <v>-0.007320753192658899</v>
       </c>
       <c r="D98">
-        <v>0.01291065524015447</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01327980630554232</v>
+      </c>
+      <c r="E98">
+        <v>-0.07489722115781829</v>
+      </c>
+      <c r="F98">
+        <v>0.09180848443847575</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0564335556369231</v>
+        <v>0.05482154043430625</v>
       </c>
       <c r="C99">
-        <v>0.002087229531639618</v>
+        <v>0.004348554081368651</v>
       </c>
       <c r="D99">
-        <v>0.02343446001231419</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03842548525913848</v>
+      </c>
+      <c r="E99">
+        <v>0.02147569790306632</v>
+      </c>
+      <c r="F99">
+        <v>-0.003602123926327948</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1424342301504374</v>
+        <v>0.128901817767353</v>
       </c>
       <c r="C100">
-        <v>0.0377728344622597</v>
+        <v>0.05275900249681232</v>
       </c>
       <c r="D100">
-        <v>0.4273087962635229</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3511221797238421</v>
+      </c>
+      <c r="E100">
+        <v>-0.8824891528143841</v>
+      </c>
+      <c r="F100">
+        <v>0.1682633636213941</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0262809127682179</v>
+        <v>0.02887635056771553</v>
       </c>
       <c r="C101">
-        <v>-0.009957130687638137</v>
+        <v>-0.00884489912535558</v>
       </c>
       <c r="D101">
-        <v>0.02012127635967496</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03086783220920788</v>
+      </c>
+      <c r="E101">
+        <v>0.01351267197578804</v>
+      </c>
+      <c r="F101">
+        <v>0.01368371637208994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
